--- a/Datos/trabajadores.xlsx
+++ b/Datos/trabajadores.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rfe0ea6fb7e334e0b"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R9f4cd9bfc49b4a40"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <x:si>
     <x:t>Nombre</x:t>
   </x:si>
@@ -44,7 +44,7 @@
     <x:t>Fecha</x:t>
   </x:si>
   <x:si>
-    <x:t>Jose</x:t>
+    <x:t>Jose Perez</x:t>
   </x:si>
   <x:si>
     <x:t>21323131-2</x:t>
@@ -68,7 +68,31 @@
     <x:t>2021-05-05</x:t>
   </x:si>
   <x:si>
+    <x:t>Rodrigo Roberto</x:t>
+  </x:si>
+  <x:si>
     <x:t>21328731-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alexander Obando</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05872963-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1514-141515-151-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161661515151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Colonia Rabida</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7781-8748</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-05-06</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -408,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:J3"/>
+  <x:dimension ref="A1:J4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -480,10 +504,10 @@
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C3" t="s">
         <x:v>12</x:v>
@@ -508,6 +532,38 @@
       </x:c>
       <x:c r="J3" t="s">
         <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E4">
+        <x:v>12321</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I4">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="J4" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
